--- a/女宝.xlsx
+++ b/女宝.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="213">
   <si>
     <t>收件人</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -642,6 +642,55 @@
   </si>
   <si>
     <t>个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵志飞</t>
+  </si>
+  <si>
+    <t xml:space="preserve">河南省郑州市高新区金菊街丁楼庄园 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女孩15套</t>
+  </si>
+  <si>
+    <t>女孩10套</t>
+  </si>
+  <si>
+    <t>齐艳菲</t>
+  </si>
+  <si>
+    <t xml:space="preserve">河南省平顶山市卫东区明珠世纪城，  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18239702333</t>
+  </si>
+  <si>
+    <t>项灵飞</t>
+  </si>
+  <si>
+    <t>13915423974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">江苏省苏州市吴中区郭巷镇尹东新村九期B区30幢206 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直邮：（女孩3套）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -649,9 +698,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -817,7 +863,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -841,9 +887,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1265,15 +1308,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.33203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="7.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="72.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="93.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.5" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.5" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.5" style="5" customWidth="1"/>
@@ -1287,7 +1330,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -1484,7 +1527,7 @@
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -1819,7 +1862,7 @@
       <c r="A23" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>115</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -2010,7 +2053,7 @@
       <c r="A31" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="10" t="s">
         <v>115</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -2238,6 +2281,57 @@
       </c>
       <c r="H40" s="3">
         <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C41" s="5">
+        <v>13526694701</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="45" spans="1:10">

--- a/女宝.xlsx
+++ b/女宝.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27300" windowHeight="16540" tabRatio="500"/>
+    <workbookView xWindow="1520" yWindow="700" windowWidth="27300" windowHeight="16540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="女宝" sheetId="2" r:id="rId1"/>
@@ -1308,8 +1308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="D15" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.33203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2299,6 +2299,9 @@
       <c r="F41" s="5" t="s">
         <v>210</v>
       </c>
+      <c r="H41" s="3">
+        <v>40</v>
+      </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="3" t="s">
@@ -2316,6 +2319,9 @@
       <c r="F42" s="5" t="s">
         <v>211</v>
       </c>
+      <c r="H42" s="3">
+        <v>41</v>
+      </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="3" t="s">
@@ -2332,6 +2338,9 @@
       </c>
       <c r="F43" s="5" t="s">
         <v>212</v>
+      </c>
+      <c r="H43" s="3">
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:10">

--- a/女宝.xlsx
+++ b/女宝.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="700" windowWidth="27300" windowHeight="16540" tabRatio="500"/>
+    <workbookView xWindow="4340" yWindow="1780" windowWidth="25040" windowHeight="15500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="女宝" sheetId="2" r:id="rId1"/>
@@ -19,30 +19,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="268">
   <si>
     <t>收件人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>收件地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>身份证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>物品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>其他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>蔡春红</t>
@@ -67,14 +67,14 @@
   </si>
   <si>
     <t>18270026166</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>360733198805230019</t>
   </si>
   <si>
     <t>美国直邮康迪克儿童女宝杯子2套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>发件人，lee15979771018</t>
@@ -111,7 +111,7 @@
   </si>
   <si>
     <t>发货王红霞18365666805</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>方晓颖</t>
@@ -124,7 +124,7 @@
   </si>
   <si>
     <t>510108198707310620</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>康迪克女宝*1</t>
@@ -140,14 +140,14 @@
   </si>
   <si>
     <t>18244576662</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>130281199010190020</t>
   </si>
   <si>
     <t>女宝宝2套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>黄海艳</t>
@@ -190,7 +190,7 @@
   </si>
   <si>
     <t>510722198810263068</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>康迪克女宝*3</t>
@@ -200,7 +200,7 @@
   </si>
   <si>
     <t>陕西省宝鸡市渭滨区八一大楼速递易</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>18191799082</t>
@@ -297,7 +297,7 @@
   </si>
   <si>
     <t>330322198712034821</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>两组女宝宝</t>
@@ -334,7 +334,7 @@
   </si>
   <si>
     <t>女二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>谈乐</t>
@@ -362,7 +362,7 @@
   </si>
   <si>
     <t>211381199011205219</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>王红娟</t>
@@ -381,7 +381,7 @@
   </si>
   <si>
     <t>王红霞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>山东省潍坊市临朐县全福元步行街国酒茅台专卖店</t>
@@ -400,7 +400,7 @@
   </si>
   <si>
     <t>江苏省苏州市吴中区郭巷街道郭新西路188号（国香园30幢）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>13584885309</t>
@@ -443,7 +443,7 @@
   </si>
   <si>
     <t>河北省唐山市路北区金隅乐府Ｂ16-2-801</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>13603379006</t>
@@ -514,7 +514,7 @@
   <si>
     <t xml:space="preserve">18092940668
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>610321198306071521</t>
@@ -539,7 +539,7 @@
   </si>
   <si>
     <t>女宝1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>张静</t>
@@ -555,14 +555,14 @@
   </si>
   <si>
     <t>【女色】女宝1套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>任静</t>
   </si>
   <si>
     <t xml:space="preserve">厦门市集美区天安路70号311室     </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">15105982885 </t>
@@ -638,18 +638,18 @@
   </si>
   <si>
     <t>索引-添加时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>个数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>赵志飞</t>
   </si>
   <si>
     <t xml:space="preserve">河南省郑州市高新区金菊街丁楼庄园 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>女孩15套</t>
@@ -662,7 +662,7 @@
   </si>
   <si>
     <t xml:space="preserve">河南省平顶山市卫东区明珠世纪城，  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>18239702333</t>
@@ -675,30 +675,206 @@
   </si>
   <si>
     <t xml:space="preserve">江苏省苏州市吴中区郭巷镇尹东新村九期B区30幢206 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>直邮：（女孩3套）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tracking</t>
+  </si>
+  <si>
+    <t>9900002299-93</t>
+  </si>
+  <si>
+    <t>9900002299-22</t>
+  </si>
+  <si>
+    <t>9900002299-11</t>
+  </si>
+  <si>
+    <t>9900002299-90</t>
+  </si>
+  <si>
+    <t>9900002299-86</t>
+  </si>
+  <si>
+    <t>9900002299-87</t>
+  </si>
+  <si>
+    <t>9900002299-88</t>
+  </si>
+  <si>
+    <t>9900002299-89</t>
+  </si>
+  <si>
+    <t>9900002299-85</t>
+  </si>
+  <si>
+    <t>9900002299-74</t>
+  </si>
+  <si>
+    <t>9900002299-75</t>
+  </si>
+  <si>
+    <t>9900002299-76</t>
+  </si>
+  <si>
+    <t>9900002299-77</t>
+  </si>
+  <si>
+    <t>9900002299-78</t>
+  </si>
+  <si>
+    <t>9900002299-79</t>
+  </si>
+  <si>
+    <t>9900002299-80</t>
+  </si>
+  <si>
+    <t>9900002299-81</t>
+  </si>
+  <si>
+    <t>9900002299-82</t>
+  </si>
+  <si>
+    <t>9900002299-56</t>
+  </si>
+  <si>
+    <t>9900002299-55</t>
+  </si>
+  <si>
+    <t>9900002299-54</t>
+  </si>
+  <si>
+    <t>9900002299-52</t>
+  </si>
+  <si>
+    <t>9900002299-51</t>
+  </si>
+  <si>
+    <t>9900002299-50</t>
+  </si>
+  <si>
+    <t>9900002299-49</t>
+  </si>
+  <si>
+    <t>9900002299-48</t>
+  </si>
+  <si>
+    <t>9900002299-67</t>
+  </si>
+  <si>
+    <t>9900002299-46</t>
+  </si>
+  <si>
+    <t>9900002299-45</t>
+  </si>
+  <si>
+    <t>9900002299-73</t>
+  </si>
+  <si>
+    <t>99000022-9045</t>
+  </si>
+  <si>
+    <t>99000022-9047</t>
+  </si>
+  <si>
+    <t>9900002299-9047</t>
+  </si>
+  <si>
+    <t>99000022-9046</t>
+  </si>
+  <si>
+    <t>9900002299-65</t>
+  </si>
+  <si>
+    <t>99000022-9044</t>
+  </si>
+  <si>
+    <t>99000022-9043</t>
+  </si>
+  <si>
+    <t>99000022-7771</t>
+  </si>
+  <si>
+    <t>99000022-9052-9253-9936-9041</t>
+  </si>
+  <si>
+    <t>99000022-9934-9935-9936</t>
+  </si>
+  <si>
+    <t>99000022-9235</t>
+  </si>
+  <si>
+    <t>洪翠银</t>
+  </si>
+  <si>
+    <t>福建省石狮曾坑坑前谭革楼4楼，，15159867333，10套女</t>
+  </si>
+  <si>
+    <t>99000022-9040-9039-9234</t>
+  </si>
+  <si>
+    <t>崔庆华</t>
+  </si>
+  <si>
+    <t>山东省临沂市蒙阴县蒙山路中段城市中心花园沿街向南10米。 电话：  女*4</t>
+  </si>
+  <si>
+    <t>99000022-9931</t>
+  </si>
+  <si>
+    <t>赖秀娘</t>
+  </si>
+  <si>
+    <t>福建省龙岩市新罗区曹溪街道利来山庄7栋403</t>
+  </si>
+  <si>
+    <t>99000022-9932</t>
+  </si>
+  <si>
+    <t>黄峰</t>
+  </si>
+  <si>
+    <t>湖南省常德市武陵区 丹阳街道 蓝湖郡小区后门柏子园社区</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18173612826 </t>
+  </si>
+  <si>
+    <t>99000022-9933</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -741,8 +917,26 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF26282A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -752,6 +946,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -780,95 +980,97 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="81">
+  <cellStyleXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -889,14 +1091,42 @@
     <xf numFmtId="18" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="81">
+  <cellStyles count="83">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
@@ -938,6 +1168,7 @@
     <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -978,6 +1209,7 @@
     <cellStyle name="超链接" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="77" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="81" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1306,10 +1538,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D15" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.33203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1321,12 +1554,12 @@
     <col min="5" max="5" width="30.5" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.5" style="5" customWidth="1"/>
     <col min="7" max="7" width="30.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="29.5" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="29.33203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1351,8 +1584,11 @@
       <c r="H1" s="1" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1">
+      <c r="I1" s="11" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -1375,8 +1611,11 @@
       <c r="H2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="12" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -1401,8 +1640,11 @@
       <c r="H3" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -1424,8 +1666,11 @@
       <c r="H4" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="13" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
@@ -1450,8 +1695,11 @@
       <c r="H5" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="13" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
         <v>28</v>
       </c>
@@ -1476,8 +1724,11 @@
       <c r="H6" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="13" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="3" t="s">
         <v>34</v>
       </c>
@@ -1499,8 +1750,11 @@
       <c r="H7" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="13" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="5" t="s">
         <v>39</v>
       </c>
@@ -1522,8 +1776,11 @@
       <c r="H8" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
@@ -1546,8 +1803,11 @@
       <c r="H9" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
         <v>49</v>
       </c>
@@ -1572,8 +1832,11 @@
       <c r="H10" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="13" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
         <v>54</v>
       </c>
@@ -1595,8 +1858,11 @@
       <c r="H11" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="13" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="3" t="s">
         <v>59</v>
       </c>
@@ -1618,8 +1884,11 @@
       <c r="H12" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" s="13" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="3" t="s">
         <v>64</v>
       </c>
@@ -1641,8 +1910,11 @@
       <c r="H13" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="13" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="3" t="s">
         <v>69</v>
       </c>
@@ -1664,8 +1936,11 @@
       <c r="H14" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" s="13" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="3" t="s">
         <v>74</v>
       </c>
@@ -1687,8 +1962,11 @@
       <c r="H15" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" s="13" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="3" t="s">
         <v>79</v>
       </c>
@@ -1709,6 +1987,9 @@
       </c>
       <c r="H16" s="3">
         <v>15</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1733,6 +2014,9 @@
       <c r="H17" s="3">
         <v>16</v>
       </c>
+      <c r="I17" s="13" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="3" t="s">
@@ -1759,6 +2043,9 @@
       <c r="H18" s="3">
         <v>17</v>
       </c>
+      <c r="I18" s="13" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="3" t="s">
@@ -1782,6 +2069,9 @@
       <c r="H19" s="3">
         <v>18</v>
       </c>
+      <c r="I19" s="13" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="20" spans="1:10" s="6" customFormat="1">
       <c r="A20" s="3" t="s">
@@ -1806,7 +2096,9 @@
       <c r="H20" s="3">
         <v>19</v>
       </c>
-      <c r="I20" s="3"/>
+      <c r="I20" s="13" t="s">
+        <v>232</v>
+      </c>
       <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10">
@@ -1834,6 +2126,9 @@
       <c r="H21" s="3">
         <v>20</v>
       </c>
+      <c r="I21" s="13" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="3" t="s">
@@ -1857,6 +2152,9 @@
       <c r="H22" s="3">
         <v>21</v>
       </c>
+      <c r="I22" s="13" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="3" t="s">
@@ -1880,6 +2178,9 @@
       <c r="H23" s="3">
         <v>22</v>
       </c>
+      <c r="I23" s="13" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="3" t="s">
@@ -1903,6 +2204,9 @@
       <c r="H24" s="3">
         <v>23</v>
       </c>
+      <c r="I24" s="13" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="3" t="s">
@@ -1926,6 +2230,9 @@
       <c r="H25" s="3">
         <v>24</v>
       </c>
+      <c r="I25" s="13" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="3" t="s">
@@ -1949,6 +2256,9 @@
       <c r="H26" s="3">
         <v>25</v>
       </c>
+      <c r="I26" s="13" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="3" t="s">
@@ -1972,6 +2282,9 @@
       <c r="H27" s="3">
         <v>26</v>
       </c>
+      <c r="I27" s="13" t="s">
+        <v>239</v>
+      </c>
       <c r="J27" s="6"/>
     </row>
     <row r="28" spans="1:10">
@@ -1999,6 +2312,9 @@
       <c r="H28" s="3">
         <v>27</v>
       </c>
+      <c r="I28" s="13" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="3" t="s">
@@ -2025,6 +2341,9 @@
       <c r="H29" s="3">
         <v>28</v>
       </c>
+      <c r="I29" s="14" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="3" t="s">
@@ -2048,6 +2367,9 @@
       <c r="H30" s="3">
         <v>29</v>
       </c>
+      <c r="I30" s="14" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="3" t="s">
@@ -2071,6 +2393,9 @@
       <c r="H31" s="3">
         <v>30</v>
       </c>
+      <c r="I31" s="15" t="s">
+        <v>243</v>
+      </c>
       <c r="J31" s="8"/>
     </row>
     <row r="32" spans="1:10" ht="30">
@@ -2098,8 +2423,11 @@
       <c r="H32" s="3">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="I32" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="3" t="s">
         <v>161</v>
       </c>
@@ -2121,8 +2449,11 @@
       <c r="H33" s="3">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="I33" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="3" t="s">
         <v>166</v>
       </c>
@@ -2144,8 +2475,11 @@
       <c r="H34" s="3">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="I34" s="14" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="3" t="s">
         <v>171</v>
       </c>
@@ -2164,8 +2498,11 @@
       <c r="H35" s="3">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="I35" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="3" t="s">
         <v>175</v>
       </c>
@@ -2187,8 +2524,11 @@
       <c r="H36" s="3">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="I36" s="14" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="3" t="s">
         <v>155</v>
       </c>
@@ -2213,8 +2553,11 @@
       <c r="H37" s="3">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="I37" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="3" t="s">
         <v>182</v>
       </c>
@@ -2236,8 +2579,11 @@
       <c r="H38" s="3">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="I38" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="3" t="s">
         <v>187</v>
       </c>
@@ -2259,8 +2605,11 @@
       <c r="H39" s="3">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="I39" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="3" t="s">
         <v>192</v>
       </c>
@@ -2282,8 +2631,11 @@
       <c r="H40" s="3">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="I40" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="3" t="s">
         <v>199</v>
       </c>
@@ -2302,8 +2654,11 @@
       <c r="H41" s="3">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="I41" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="3" t="s">
         <v>203</v>
       </c>
@@ -2322,8 +2677,11 @@
       <c r="H42" s="3">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="I42" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="3" t="s">
         <v>206</v>
       </c>
@@ -2342,18 +2700,95 @@
       <c r="H43" s="3">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="J45" s="3">
-        <f>SUM(F:F)</f>
-        <v>51</v>
+      <c r="I43" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="C44" s="19">
+        <v>15159867333</v>
+      </c>
+      <c r="F44" s="17">
+        <v>10</v>
+      </c>
+      <c r="H44" s="3">
+        <v>43</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="C45" s="19">
+        <v>18660921089</v>
+      </c>
+      <c r="F45" s="17">
+        <v>4</v>
+      </c>
+      <c r="H45" s="3">
+        <v>44</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="C46" s="20">
+        <v>18950878787</v>
+      </c>
+      <c r="F46" s="18">
+        <v>1</v>
+      </c>
+      <c r="H46" s="3">
+        <v>45</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="F47" s="18">
+        <v>2</v>
+      </c>
+      <c r="H47" s="3">
+        <v>46</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A1:C38">
     <sortCondition ref="C1"/>
   </sortState>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
